--- a/MCBIOS2015-BMCBioinformatics/Supplement.xlsx
+++ b/MCBIOS2015-BMCBioinformatics/Supplement.xlsx
@@ -29,15 +29,6 @@
   </si>
   <si>
     <t>Read length 100, sequencing error 2%, mutation rate 1%</t>
-  </si>
-  <si>
-    <t>Read length 100, sequencing error rate 0.5%</t>
-  </si>
-  <si>
-    <t>Read length 100, sequencing error rate 1%</t>
-  </si>
-  <si>
-    <t>Read length 50, sequencing error rate 2%, mutation 0.001</t>
   </si>
   <si>
     <t>Read length 75, sequencing error rate 2%, mutation 0.001</t>
@@ -906,6 +897,15 @@
   <si>
     <t>Correlation with R100</t>
   </si>
+  <si>
+    <t>Read length 100, sequencing error rate 0.5%, mutation rate 0.1%</t>
+  </si>
+  <si>
+    <t>Read length 100, sequencing error rate 1%, mutation rate 0.1%</t>
+  </si>
+  <si>
+    <t>Read length 50, sequencing error rate 2%, mutation rate 0.1%</t>
+  </si>
 </sst>
 </file>
 
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BL2" sqref="BL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1365,275 +1365,275 @@
         <v>2</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="BV1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:83">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>23</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>26</v>
       </c>
-      <c r="U2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" t="s">
-        <v>29</v>
-      </c>
       <c r="X2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>29</v>
-      </c>
       <c r="AH2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>24</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>26</v>
       </c>
-      <c r="AO2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>29</v>
-      </c>
       <c r="AR2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU2" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>21</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>23</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>24</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>25</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>29</v>
-      </c>
       <c r="BB2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE2" t="s">
         <v>20</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>21</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>23</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>24</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>25</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>26</v>
       </c>
-      <c r="BI2" t="s">
-        <v>27</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>29</v>
-      </c>
       <c r="BL2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO2" t="s">
         <v>20</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>21</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>22</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>23</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>24</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>25</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>26</v>
       </c>
-      <c r="BS2" t="s">
-        <v>27</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>28</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>29</v>
-      </c>
       <c r="BV2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY2" t="s">
         <v>20</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BZ2" t="s">
         <v>21</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CA2" t="s">
         <v>22</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
         <v>23</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CC2" t="s">
         <v>24</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CD2" t="s">
         <v>25</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CE2" t="s">
         <v>26</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>27</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>28</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:83">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>1992676</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="4" spans="1:83">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>14497843</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="5" spans="1:83">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>2013089</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="6" spans="1:83">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>2814130</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="7" spans="1:83">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>1347714</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="8" spans="1:83">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>4202352</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="9" spans="1:83">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>4011161</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="10" spans="1:83">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>15072434</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="11" spans="1:83">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>521582</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="12" spans="1:83">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>122678785</v>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="13" spans="1:83">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>23914537</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="14" spans="1:83">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>1786351</v>
@@ -4642,10 +4642,10 @@
     </row>
     <row r="15" spans="1:83">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>19787792</v>
@@ -4893,10 +4893,10 @@
     </row>
     <row r="16" spans="1:83">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>57791882</v>
@@ -5144,10 +5144,10 @@
     </row>
     <row r="17" spans="1:83">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>11219875</v>
@@ -5395,10 +5395,10 @@
     </row>
     <row r="18" spans="1:83">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>21712932</v>
@@ -5646,10 +5646,10 @@
     </row>
     <row r="19" spans="1:83">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>6357299</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="20" spans="1:83">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>22324452</v>
@@ -6148,10 +6148,10 @@
     </row>
     <row r="21" spans="1:83">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>21139217</v>
@@ -6399,10 +6399,10 @@
     </row>
     <row r="22" spans="1:83">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>4918979</v>
@@ -6650,10 +6650,10 @@
     </row>
     <row r="23" spans="1:83">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>161428367</v>
@@ -6901,10 +6901,10 @@
     </row>
     <row r="24" spans="1:83">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>44081797</v>
@@ -7152,10 +7152,10 @@
     </row>
     <row r="25" spans="1:83">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>4054025</v>
@@ -7403,10 +7403,10 @@
     </row>
     <row r="26" spans="1:83">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>199526509</v>
@@ -7654,10 +7654,10 @@
     </row>
     <row r="27" spans="1:83">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>78773432</v>
@@ -7905,10 +7905,10 @@
     </row>
     <row r="28" spans="1:83">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>185838109</v>
@@ -8156,10 +8156,10 @@
     </row>
     <row r="29" spans="1:83">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>2067354</v>
@@ -8407,10 +8407,10 @@
     </row>
     <row r="30" spans="1:83">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>118548696</v>
@@ -8658,10 +8658,10 @@
     </row>
     <row r="31" spans="1:83">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>16962381</v>
@@ -8909,10 +8909,10 @@
     </row>
     <row r="32" spans="1:83">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>46535552</v>
@@ -9160,10 +9160,10 @@
     </row>
     <row r="33" spans="1:83">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C33">
         <v>8914601</v>
@@ -9411,10 +9411,10 @@
     </row>
     <row r="34" spans="1:83">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C34">
         <v>4643527</v>
@@ -9662,10 +9662,10 @@
     </row>
     <row r="35" spans="1:83">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <v>5212762</v>
@@ -9913,10 +9913,10 @@
     </row>
     <row r="36" spans="1:83">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>1002813</v>
@@ -10164,10 +10164,10 @@
     </row>
     <row r="37" spans="1:83">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>3042585</v>
@@ -10415,10 +10415,10 @@
     </row>
     <row r="38" spans="1:83">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C38">
         <v>1385275</v>
@@ -10666,10 +10666,10 @@
     </row>
     <row r="39" spans="1:83">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C39">
         <v>55460251</v>
@@ -10917,10 +10917,10 @@
     </row>
     <row r="40" spans="1:83">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C40">
         <v>60981646</v>
@@ -11168,10 +11168,10 @@
     </row>
     <row r="41" spans="1:83">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C41">
         <v>301354135</v>
@@ -11419,10 +11419,10 @@
     </row>
     <row r="42" spans="1:83">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C42">
         <v>47997241</v>
@@ -11670,10 +11670,10 @@
     </row>
     <row r="43" spans="1:83">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C43">
         <v>61220071</v>
@@ -11921,10 +11921,10 @@
     </row>
     <row r="44" spans="1:83">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44">
         <v>1255352</v>
@@ -12172,10 +12172,10 @@
     </row>
     <row r="45" spans="1:83">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C45">
         <v>41906774</v>
@@ -12423,10 +12423,10 @@
     </row>
     <row r="46" spans="1:83">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C46">
         <v>44557958</v>
@@ -12674,10 +12674,10 @@
     </row>
     <row r="47" spans="1:83">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C47">
         <v>55886266</v>
@@ -12925,10 +12925,10 @@
     </row>
     <row r="48" spans="1:83">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C48">
         <v>66770968</v>
@@ -13176,10 +13176,10 @@
     </row>
     <row r="49" spans="1:83">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C49">
         <v>27037145</v>
@@ -13427,10 +13427,10 @@
     </row>
     <row r="50" spans="1:83">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C50">
         <v>42630297</v>
@@ -13678,10 +13678,10 @@
     </row>
     <row r="51" spans="1:83">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C51">
         <v>23282162</v>
@@ -13929,10 +13929,10 @@
     </row>
     <row r="52" spans="1:83">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C52">
         <v>232296185</v>
@@ -14180,10 +14180,10 @@
     </row>
     <row r="53" spans="1:83">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C53">
         <v>65364038</v>
@@ -14431,10 +14431,10 @@
     </row>
     <row r="54" spans="1:83">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C54">
         <v>922307</v>
@@ -14682,10 +14682,10 @@
     </row>
     <row r="55" spans="1:83">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C55">
         <v>2740984</v>
@@ -14933,10 +14933,10 @@
     </row>
     <row r="56" spans="1:83">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C56">
         <v>6503724</v>
@@ -15184,10 +15184,10 @@
     </row>
     <row r="57" spans="1:83">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C57">
         <v>8234322</v>
@@ -15435,10 +15435,10 @@
     </row>
     <row r="58" spans="1:83">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C58">
         <v>945026</v>
@@ -15686,10 +15686,10 @@
     </row>
     <row r="59" spans="1:83">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C59">
         <v>5167383</v>
@@ -15937,10 +15937,10 @@
     </row>
     <row r="60" spans="1:83">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C60">
         <v>9127347</v>
@@ -16188,10 +16188,10 @@
     </row>
     <row r="61" spans="1:83">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C61">
         <v>5097447</v>
@@ -16439,10 +16439,10 @@
     </row>
     <row r="62" spans="1:83">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C62">
         <v>7013095</v>
@@ -16690,10 +16690,10 @@
     </row>
     <row r="63" spans="1:83">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C63">
         <v>4044777</v>
@@ -16941,10 +16941,10 @@
     </row>
     <row r="64" spans="1:83">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C64">
         <v>9239851</v>
@@ -17192,10 +17192,10 @@
     </row>
     <row r="65" spans="1:83">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C65">
         <v>4321753</v>
@@ -17443,10 +17443,10 @@
     </row>
     <row r="66" spans="1:83">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66">
         <v>5196935</v>
@@ -17694,10 +17694,10 @@
     </row>
     <row r="67" spans="1:83">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C67">
         <v>1050361</v>
@@ -17945,10 +17945,10 @@
     </row>
     <row r="68" spans="1:83">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C68">
         <v>7456587</v>
@@ -18196,10 +18196,10 @@
     </row>
     <row r="69" spans="1:83">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C69">
         <v>2452883</v>
@@ -18447,10 +18447,10 @@
     </row>
     <row r="70" spans="1:83">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C70">
         <v>1114666</v>
@@ -18698,10 +18698,10 @@
     </row>
     <row r="71" spans="1:83">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C71">
         <v>27390870</v>
@@ -18949,10 +18949,10 @@
     </row>
     <row r="72" spans="1:83">
       <c r="A72" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C72">
         <v>10049037</v>
@@ -19200,10 +19200,10 @@
     </row>
     <row r="73" spans="1:83">
       <c r="A73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C73">
         <v>3325165</v>
@@ -19451,10 +19451,10 @@
     </row>
     <row r="74" spans="1:83">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C74">
         <v>5346659</v>
@@ -19702,10 +19702,10 @@
     </row>
     <row r="75" spans="1:83">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C75">
         <v>4531609</v>
@@ -19953,10 +19953,10 @@
     </row>
     <row r="76" spans="1:83">
       <c r="A76" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C76">
         <v>3568623</v>
@@ -20204,10 +20204,10 @@
     </row>
     <row r="77" spans="1:83">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C77">
         <v>3108859</v>
@@ -20455,10 +20455,10 @@
     </row>
     <row r="78" spans="1:83">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C78">
         <v>512965</v>
@@ -20706,10 +20706,10 @@
     </row>
     <row r="79" spans="1:83">
       <c r="A79" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C79">
         <v>60348388</v>
@@ -20957,10 +20957,10 @@
     </row>
     <row r="80" spans="1:83">
       <c r="A80" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C80">
         <v>229507203</v>
@@ -21208,10 +21208,10 @@
     </row>
     <row r="81" spans="1:83">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C81">
         <v>9743550</v>
@@ -21459,10 +21459,10 @@
     </row>
     <row r="82" spans="1:83">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C82">
         <v>1292049</v>
@@ -21710,10 +21710,10 @@
     </row>
     <row r="83" spans="1:83">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C83">
         <v>833973</v>
@@ -21961,10 +21961,10 @@
     </row>
     <row r="84" spans="1:83">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C84">
         <v>1449145</v>
@@ -22212,10 +22212,10 @@
     </row>
     <row r="85" spans="1:83">
       <c r="A85" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C85">
         <v>1290777</v>
@@ -22463,10 +22463,10 @@
     </row>
     <row r="86" spans="1:83">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C86">
         <v>30427671</v>
@@ -22714,10 +22714,10 @@
     </row>
     <row r="87" spans="1:83">
       <c r="A87" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C87">
         <v>171823</v>
@@ -22965,10 +22965,10 @@
     </row>
     <row r="88" spans="1:83">
       <c r="A88" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C88">
         <v>45064769</v>
@@ -23216,10 +23216,10 @@
     </row>
     <row r="89" spans="1:83">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C89">
         <v>30039014</v>
@@ -23467,10 +23467,10 @@
     </row>
     <row r="90" spans="1:83">
       <c r="A90" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C90">
         <v>32124789</v>
@@ -23718,10 +23718,10 @@
     </row>
     <row r="91" spans="1:83">
       <c r="A91" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C91">
         <v>30357780</v>
@@ -23969,10 +23969,10 @@
     </row>
     <row r="92" spans="1:83">
       <c r="A92" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C92">
         <v>28530027</v>
@@ -24220,10 +24220,10 @@
     </row>
     <row r="93" spans="1:83">
       <c r="A93" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B93" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C93">
         <v>23661561</v>
@@ -24471,10 +24471,10 @@
     </row>
     <row r="94" spans="1:83">
       <c r="A94" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C94">
         <v>35571569</v>
@@ -24722,10 +24722,10 @@
     </row>
     <row r="95" spans="1:83">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C95">
         <v>35863200</v>
@@ -24973,10 +24973,10 @@
     </row>
     <row r="96" spans="1:83">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C96">
         <v>1034903</v>
@@ -25224,10 +25224,10 @@
     </row>
     <row r="97" spans="1:83">
       <c r="A97" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C97">
         <v>369930</v>
@@ -25475,10 +25475,10 @@
     </row>
     <row r="98" spans="1:83">
       <c r="A98" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B98" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C98">
         <v>3915179</v>
@@ -25726,10 +25726,10 @@
     </row>
     <row r="99" spans="1:83">
       <c r="A99" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C99">
         <v>556644</v>
@@ -25977,10 +25977,10 @@
     </row>
     <row r="100" spans="1:83">
       <c r="A100" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C100">
         <v>868660</v>
@@ -26228,10 +26228,10 @@
     </row>
     <row r="101" spans="1:83">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C101">
         <v>3353625</v>
@@ -26479,10 +26479,10 @@
     </row>
     <row r="102" spans="1:83">
       <c r="A102" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C102">
         <v>754004</v>
@@ -26730,7 +26730,7 @@
     </row>
     <row r="103" spans="1:83">
       <c r="M103" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N103">
         <f t="shared" ref="N103:AS103" si="0">AVERAGE(N3:N102)</f>
@@ -27015,7 +27015,7 @@
     </row>
     <row r="104" spans="1:83">
       <c r="M104" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N104">
         <f t="shared" ref="N104:AS104" si="3">STDEVP(N3:N102)</f>
@@ -27300,7 +27300,7 @@
     </row>
     <row r="105" spans="1:83">
       <c r="M105" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N105">
         <f t="shared" ref="N105:AS105" si="6">VARP(N3:N102)</f>
@@ -27585,7 +27585,7 @@
     </row>
     <row r="107" spans="1:83">
       <c r="K107" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N107">
         <f>CORREL($H3:$H102,N3:N102)</f>
@@ -27654,60 +27654,60 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="4">
         <v>2511150.254156</v>
@@ -27760,7 +27760,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B3" s="4">
         <v>2369675.4738289998</v>
@@ -27813,7 +27813,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B4" s="4">
         <v>2168079.0532669998</v>
@@ -27866,7 +27866,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B5" s="4">
         <v>2236338.4298840002</v>
@@ -27919,7 +27919,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B6" s="4">
         <v>1939535.2342600001</v>
@@ -27972,7 +27972,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B7" s="4">
         <v>2310196.1411899999</v>
@@ -28025,7 +28025,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B8" s="4">
         <v>2059951.968808</v>
@@ -28078,7 +28078,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B9" s="4">
         <v>2209161.3441829998</v>
@@ -28131,7 +28131,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B10" s="4">
         <v>2175003.2753329999</v>
@@ -28184,7 +28184,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B11" s="4">
         <v>2329756.1940649999</v>
@@ -28237,7 +28237,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B12" s="4">
         <v>1846980.1038250001</v>
@@ -28290,7 +28290,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B13" s="4">
         <v>1871840.9317900001</v>
@@ -28343,7 +28343,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B14" s="4">
         <v>2108881.052648</v>
@@ -28396,7 +28396,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B15" s="4">
         <v>2240899.0924109998</v>
@@ -28449,7 +28449,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B16" s="4">
         <v>2311715.6174829998</v>
@@ -28502,7 +28502,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B17" s="4">
         <v>1745063.5127580001</v>
@@ -28555,7 +28555,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B18" s="4">
         <v>1961286.579923</v>
@@ -28608,7 +28608,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B19" s="4">
         <v>2728427.1372019998</v>
@@ -28661,7 +28661,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B20" s="4">
         <v>2278150.4893530002</v>
@@ -28714,7 +28714,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B21" s="4">
         <v>2130734.5579369999</v>
@@ -28767,7 +28767,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B22" s="4">
         <v>11326860.169438001</v>
@@ -28820,7 +28820,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B23" s="4">
         <v>9173190.5620370004</v>
@@ -28873,7 +28873,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B24" s="4">
         <v>8984513.9674600009</v>
@@ -28926,7 +28926,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B25" s="4">
         <v>9381792.0981249996</v>
@@ -28979,7 +28979,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B26" s="4">
         <v>8436652.9378859997</v>
@@ -29032,7 +29032,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B27" s="4">
         <v>6720091.6631530002</v>
@@ -29085,7 +29085,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B28" s="4">
         <v>7033337.2597709997</v>
@@ -29138,7 +29138,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B29" s="4">
         <v>6930842.5537780002</v>
@@ -29191,7 +29191,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B30" s="4">
         <v>6325691.5450980002</v>
@@ -29244,7 +29244,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B31" s="4">
         <v>6020057.7710910002</v>
@@ -29297,7 +29297,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B32" s="4">
         <v>9958820.1165650003</v>
@@ -29350,7 +29350,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B33" s="4">
         <v>10592578.83932</v>
@@ -29403,7 +29403,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B34" s="4">
         <v>8738748.0140450001</v>
@@ -29456,7 +29456,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B35" s="4">
         <v>8413174.2365719993</v>
@@ -29509,7 +29509,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B36" s="4">
         <v>7992956.5324670002</v>
@@ -29562,7 +29562,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B37" s="4">
         <v>7569160.2442929996</v>
@@ -29615,7 +29615,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B38" s="4">
         <v>7007671.3960819999</v>
@@ -29668,7 +29668,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B39" s="4">
         <v>6531137.5738070002</v>
@@ -29721,7 +29721,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B40" s="4">
         <v>5463953.1646640003</v>
@@ -29774,7 +29774,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B41" s="4">
         <v>6007763.3303680001</v>
@@ -29827,7 +29827,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B42" s="4">
         <v>6016202.5109350001</v>
@@ -29880,7 +29880,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B43" s="4">
         <v>5954991.2684359998</v>
@@ -29933,7 +29933,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B44" s="4">
         <v>4494499.1479110001</v>
@@ -29986,7 +29986,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B45" s="4">
         <v>4138538.3495760001</v>
@@ -30039,7 +30039,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B46" s="4">
         <v>3823470.5203030002</v>
@@ -30092,7 +30092,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B47" s="4">
         <v>3675121.8657800001</v>
@@ -30145,7 +30145,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B48" s="4">
         <v>3605766.7716560001</v>
@@ -30198,7 +30198,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B49" s="4">
         <v>3570491.316168</v>
@@ -30251,7 +30251,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B50" s="4">
         <v>2555835.3465510001</v>
@@ -30304,7 +30304,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B51" s="4">
         <v>2870092.7924629999</v>
@@ -30357,7 +30357,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B52" s="4">
         <v>1754283.254677</v>
@@ -30410,7 +30410,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B53" s="4">
         <v>1702407.6865930001</v>
@@ -30463,7 +30463,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B54" s="4">
         <v>6734501.144297</v>
@@ -30516,7 +30516,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B55" s="4">
         <v>1235374.4345819999</v>

--- a/MCBIOS2015-BMCBioinformatics/Supplement.xlsx
+++ b/MCBIOS2015-BMCBioinformatics/Supplement.xlsx
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Read length 100, sequencing error 2%, mutation rate 1%</t>
-  </si>
-  <si>
-    <t>Read length 75, sequencing error rate 2%, mutation 0.001</t>
   </si>
   <si>
     <t>Sequence info</t>
@@ -906,6 +903,9 @@
   <si>
     <t>Read length 50, sequencing error rate 2%, mutation rate 0.1%</t>
   </si>
+  <si>
+    <t>Read length 75, sequencing error rate 2%, mutation 0.1%</t>
+  </si>
 </sst>
 </file>
 
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BL2" sqref="BL2"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BV2" sqref="BV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1365,275 +1365,275 @@
         <v>2</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:83">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>23</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>24</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>25</v>
       </c>
-      <c r="W2" t="s">
-        <v>26</v>
-      </c>
       <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>21</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" t="s">
-        <v>26</v>
-      </c>
       <c r="AH2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>19</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>24</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>25</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>26</v>
-      </c>
       <c r="AR2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS2" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>18</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>20</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>21</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>22</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>23</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>24</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>25</v>
       </c>
-      <c r="BA2" t="s">
-        <v>26</v>
-      </c>
       <c r="BB2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC2" t="s">
         <v>17</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>18</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>19</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>20</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>21</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>22</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>23</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>24</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>25</v>
       </c>
-      <c r="BK2" t="s">
-        <v>26</v>
-      </c>
       <c r="BL2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM2" t="s">
         <v>17</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>18</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>19</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>20</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>21</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>22</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>23</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>24</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>25</v>
       </c>
-      <c r="BU2" t="s">
-        <v>26</v>
-      </c>
       <c r="BV2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW2" t="s">
         <v>17</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>18</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>19</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>20</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>21</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>22</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>23</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>24</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>25</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:83">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
       </c>
       <c r="C3">
         <v>1992676</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="4" spans="1:83">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
       </c>
       <c r="C4">
         <v>14497843</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="5" spans="1:83">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
       </c>
       <c r="C5">
         <v>2013089</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="6" spans="1:83">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
       </c>
       <c r="C6">
         <v>2814130</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="7" spans="1:83">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
       </c>
       <c r="C7">
         <v>1347714</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="8" spans="1:83">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
       </c>
       <c r="C8">
         <v>4202352</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="9" spans="1:83">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
       </c>
       <c r="C9">
         <v>4011161</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="10" spans="1:83">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
       </c>
       <c r="C10">
         <v>15072434</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="11" spans="1:83">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
       </c>
       <c r="C11">
         <v>521582</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="12" spans="1:83">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
       </c>
       <c r="C12">
         <v>122678785</v>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="13" spans="1:83">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
       </c>
       <c r="C13">
         <v>23914537</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="14" spans="1:83">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
       </c>
       <c r="C14">
         <v>1786351</v>
@@ -4642,10 +4642,10 @@
     </row>
     <row r="15" spans="1:83">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
       </c>
       <c r="C15">
         <v>19787792</v>
@@ -4893,10 +4893,10 @@
     </row>
     <row r="16" spans="1:83">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
       </c>
       <c r="C16">
         <v>57791882</v>
@@ -5144,10 +5144,10 @@
     </row>
     <row r="17" spans="1:83">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
       </c>
       <c r="C17">
         <v>11219875</v>
@@ -5395,10 +5395,10 @@
     </row>
     <row r="18" spans="1:83">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
       </c>
       <c r="C18">
         <v>21712932</v>
@@ -5646,10 +5646,10 @@
     </row>
     <row r="19" spans="1:83">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
         <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
       </c>
       <c r="C19">
         <v>6357299</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="20" spans="1:83">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
       </c>
       <c r="C20">
         <v>22324452</v>
@@ -6148,10 +6148,10 @@
     </row>
     <row r="21" spans="1:83">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
       </c>
       <c r="C21">
         <v>21139217</v>
@@ -6399,10 +6399,10 @@
     </row>
     <row r="22" spans="1:83">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
       </c>
       <c r="C22">
         <v>4918979</v>
@@ -6650,10 +6650,10 @@
     </row>
     <row r="23" spans="1:83">
       <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
         <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
       </c>
       <c r="C23">
         <v>161428367</v>
@@ -6901,10 +6901,10 @@
     </row>
     <row r="24" spans="1:83">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
       </c>
       <c r="C24">
         <v>44081797</v>
@@ -7152,10 +7152,10 @@
     </row>
     <row r="25" spans="1:83">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
       </c>
       <c r="C25">
         <v>4054025</v>
@@ -7403,10 +7403,10 @@
     </row>
     <row r="26" spans="1:83">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
       </c>
       <c r="C26">
         <v>199526509</v>
@@ -7654,10 +7654,10 @@
     </row>
     <row r="27" spans="1:83">
       <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
         <v>75</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
       </c>
       <c r="C27">
         <v>78773432</v>
@@ -7905,10 +7905,10 @@
     </row>
     <row r="28" spans="1:83">
       <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
         <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
       </c>
       <c r="C28">
         <v>185838109</v>
@@ -8156,10 +8156,10 @@
     </row>
     <row r="29" spans="1:83">
       <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
         <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>80</v>
       </c>
       <c r="C29">
         <v>2067354</v>
@@ -8407,10 +8407,10 @@
     </row>
     <row r="30" spans="1:83">
       <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
         <v>81</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
       </c>
       <c r="C30">
         <v>118548696</v>
@@ -8658,10 +8658,10 @@
     </row>
     <row r="31" spans="1:83">
       <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
         <v>83</v>
-      </c>
-      <c r="B31" t="s">
-        <v>84</v>
       </c>
       <c r="C31">
         <v>16962381</v>
@@ -8909,10 +8909,10 @@
     </row>
     <row r="32" spans="1:83">
       <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
         <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
       </c>
       <c r="C32">
         <v>46535552</v>
@@ -9160,10 +9160,10 @@
     </row>
     <row r="33" spans="1:83">
       <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
         <v>87</v>
-      </c>
-      <c r="B33" t="s">
-        <v>88</v>
       </c>
       <c r="C33">
         <v>8914601</v>
@@ -9411,10 +9411,10 @@
     </row>
     <row r="34" spans="1:83">
       <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
         <v>89</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
       </c>
       <c r="C34">
         <v>4643527</v>
@@ -9662,10 +9662,10 @@
     </row>
     <row r="35" spans="1:83">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
         <v>91</v>
-      </c>
-      <c r="B35" t="s">
-        <v>92</v>
       </c>
       <c r="C35">
         <v>5212762</v>
@@ -9913,10 +9913,10 @@
     </row>
     <row r="36" spans="1:83">
       <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
         <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>94</v>
       </c>
       <c r="C36">
         <v>1002813</v>
@@ -10164,10 +10164,10 @@
     </row>
     <row r="37" spans="1:83">
       <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
         <v>95</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
       </c>
       <c r="C37">
         <v>3042585</v>
@@ -10415,10 +10415,10 @@
     </row>
     <row r="38" spans="1:83">
       <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
         <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
       </c>
       <c r="C38">
         <v>1385275</v>
@@ -10666,10 +10666,10 @@
     </row>
     <row r="39" spans="1:83">
       <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
         <v>99</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
       </c>
       <c r="C39">
         <v>55460251</v>
@@ -10917,10 +10917,10 @@
     </row>
     <row r="40" spans="1:83">
       <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
         <v>101</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
       </c>
       <c r="C40">
         <v>60981646</v>
@@ -11168,10 +11168,10 @@
     </row>
     <row r="41" spans="1:83">
       <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
         <v>103</v>
-      </c>
-      <c r="B41" t="s">
-        <v>104</v>
       </c>
       <c r="C41">
         <v>301354135</v>
@@ -11419,10 +11419,10 @@
     </row>
     <row r="42" spans="1:83">
       <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
         <v>105</v>
-      </c>
-      <c r="B42" t="s">
-        <v>106</v>
       </c>
       <c r="C42">
         <v>47997241</v>
@@ -11670,10 +11670,10 @@
     </row>
     <row r="43" spans="1:83">
       <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
         <v>107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>108</v>
       </c>
       <c r="C43">
         <v>61220071</v>
@@ -11921,10 +11921,10 @@
     </row>
     <row r="44" spans="1:83">
       <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
         <v>109</v>
-      </c>
-      <c r="B44" t="s">
-        <v>110</v>
       </c>
       <c r="C44">
         <v>1255352</v>
@@ -12172,10 +12172,10 @@
     </row>
     <row r="45" spans="1:83">
       <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
         <v>111</v>
-      </c>
-      <c r="B45" t="s">
-        <v>112</v>
       </c>
       <c r="C45">
         <v>41906774</v>
@@ -12423,10 +12423,10 @@
     </row>
     <row r="46" spans="1:83">
       <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
         <v>113</v>
-      </c>
-      <c r="B46" t="s">
-        <v>114</v>
       </c>
       <c r="C46">
         <v>44557958</v>
@@ -12674,10 +12674,10 @@
     </row>
     <row r="47" spans="1:83">
       <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
         <v>115</v>
-      </c>
-      <c r="B47" t="s">
-        <v>116</v>
       </c>
       <c r="C47">
         <v>55886266</v>
@@ -12925,10 +12925,10 @@
     </row>
     <row r="48" spans="1:83">
       <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
         <v>117</v>
-      </c>
-      <c r="B48" t="s">
-        <v>118</v>
       </c>
       <c r="C48">
         <v>66770968</v>
@@ -13176,10 +13176,10 @@
     </row>
     <row r="49" spans="1:83">
       <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
         <v>119</v>
-      </c>
-      <c r="B49" t="s">
-        <v>120</v>
       </c>
       <c r="C49">
         <v>27037145</v>
@@ -13427,10 +13427,10 @@
     </row>
     <row r="50" spans="1:83">
       <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
         <v>121</v>
-      </c>
-      <c r="B50" t="s">
-        <v>122</v>
       </c>
       <c r="C50">
         <v>42630297</v>
@@ -13678,10 +13678,10 @@
     </row>
     <row r="51" spans="1:83">
       <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
         <v>123</v>
-      </c>
-      <c r="B51" t="s">
-        <v>124</v>
       </c>
       <c r="C51">
         <v>23282162</v>
@@ -13929,10 +13929,10 @@
     </row>
     <row r="52" spans="1:83">
       <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
         <v>125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>126</v>
       </c>
       <c r="C52">
         <v>232296185</v>
@@ -14180,10 +14180,10 @@
     </row>
     <row r="53" spans="1:83">
       <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
         <v>127</v>
-      </c>
-      <c r="B53" t="s">
-        <v>128</v>
       </c>
       <c r="C53">
         <v>65364038</v>
@@ -14431,10 +14431,10 @@
     </row>
     <row r="54" spans="1:83">
       <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
         <v>129</v>
-      </c>
-      <c r="B54" t="s">
-        <v>130</v>
       </c>
       <c r="C54">
         <v>922307</v>
@@ -14682,10 +14682,10 @@
     </row>
     <row r="55" spans="1:83">
       <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
         <v>131</v>
-      </c>
-      <c r="B55" t="s">
-        <v>132</v>
       </c>
       <c r="C55">
         <v>2740984</v>
@@ -14933,10 +14933,10 @@
     </row>
     <row r="56" spans="1:83">
       <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
         <v>133</v>
-      </c>
-      <c r="B56" t="s">
-        <v>134</v>
       </c>
       <c r="C56">
         <v>6503724</v>
@@ -15184,10 +15184,10 @@
     </row>
     <row r="57" spans="1:83">
       <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
         <v>135</v>
-      </c>
-      <c r="B57" t="s">
-        <v>136</v>
       </c>
       <c r="C57">
         <v>8234322</v>
@@ -15435,10 +15435,10 @@
     </row>
     <row r="58" spans="1:83">
       <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
         <v>137</v>
-      </c>
-      <c r="B58" t="s">
-        <v>138</v>
       </c>
       <c r="C58">
         <v>945026</v>
@@ -15686,10 +15686,10 @@
     </row>
     <row r="59" spans="1:83">
       <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
         <v>139</v>
-      </c>
-      <c r="B59" t="s">
-        <v>140</v>
       </c>
       <c r="C59">
         <v>5167383</v>
@@ -15937,10 +15937,10 @@
     </row>
     <row r="60" spans="1:83">
       <c r="A60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" t="s">
         <v>141</v>
-      </c>
-      <c r="B60" t="s">
-        <v>142</v>
       </c>
       <c r="C60">
         <v>9127347</v>
@@ -16188,10 +16188,10 @@
     </row>
     <row r="61" spans="1:83">
       <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
         <v>143</v>
-      </c>
-      <c r="B61" t="s">
-        <v>144</v>
       </c>
       <c r="C61">
         <v>5097447</v>
@@ -16439,10 +16439,10 @@
     </row>
     <row r="62" spans="1:83">
       <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" t="s">
         <v>145</v>
-      </c>
-      <c r="B62" t="s">
-        <v>146</v>
       </c>
       <c r="C62">
         <v>7013095</v>
@@ -16690,10 +16690,10 @@
     </row>
     <row r="63" spans="1:83">
       <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s">
         <v>147</v>
-      </c>
-      <c r="B63" t="s">
-        <v>148</v>
       </c>
       <c r="C63">
         <v>4044777</v>
@@ -16941,10 +16941,10 @@
     </row>
     <row r="64" spans="1:83">
       <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s">
         <v>149</v>
-      </c>
-      <c r="B64" t="s">
-        <v>150</v>
       </c>
       <c r="C64">
         <v>9239851</v>
@@ -17192,10 +17192,10 @@
     </row>
     <row r="65" spans="1:83">
       <c r="A65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" t="s">
         <v>151</v>
-      </c>
-      <c r="B65" t="s">
-        <v>152</v>
       </c>
       <c r="C65">
         <v>4321753</v>
@@ -17443,10 +17443,10 @@
     </row>
     <row r="66" spans="1:83">
       <c r="A66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" t="s">
         <v>153</v>
-      </c>
-      <c r="B66" t="s">
-        <v>154</v>
       </c>
       <c r="C66">
         <v>5196935</v>
@@ -17694,10 +17694,10 @@
     </row>
     <row r="67" spans="1:83">
       <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" t="s">
         <v>155</v>
-      </c>
-      <c r="B67" t="s">
-        <v>156</v>
       </c>
       <c r="C67">
         <v>1050361</v>
@@ -17945,10 +17945,10 @@
     </row>
     <row r="68" spans="1:83">
       <c r="A68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" t="s">
         <v>157</v>
-      </c>
-      <c r="B68" t="s">
-        <v>158</v>
       </c>
       <c r="C68">
         <v>7456587</v>
@@ -18196,10 +18196,10 @@
     </row>
     <row r="69" spans="1:83">
       <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" t="s">
         <v>159</v>
-      </c>
-      <c r="B69" t="s">
-        <v>160</v>
       </c>
       <c r="C69">
         <v>2452883</v>
@@ -18447,10 +18447,10 @@
     </row>
     <row r="70" spans="1:83">
       <c r="A70" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" t="s">
         <v>161</v>
-      </c>
-      <c r="B70" t="s">
-        <v>162</v>
       </c>
       <c r="C70">
         <v>1114666</v>
@@ -18698,10 +18698,10 @@
     </row>
     <row r="71" spans="1:83">
       <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" t="s">
         <v>163</v>
-      </c>
-      <c r="B71" t="s">
-        <v>164</v>
       </c>
       <c r="C71">
         <v>27390870</v>
@@ -18949,10 +18949,10 @@
     </row>
     <row r="72" spans="1:83">
       <c r="A72" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" t="s">
         <v>165</v>
-      </c>
-      <c r="B72" t="s">
-        <v>166</v>
       </c>
       <c r="C72">
         <v>10049037</v>
@@ -19200,10 +19200,10 @@
     </row>
     <row r="73" spans="1:83">
       <c r="A73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" t="s">
         <v>167</v>
-      </c>
-      <c r="B73" t="s">
-        <v>168</v>
       </c>
       <c r="C73">
         <v>3325165</v>
@@ -19451,10 +19451,10 @@
     </row>
     <row r="74" spans="1:83">
       <c r="A74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" t="s">
         <v>169</v>
-      </c>
-      <c r="B74" t="s">
-        <v>170</v>
       </c>
       <c r="C74">
         <v>5346659</v>
@@ -19702,10 +19702,10 @@
     </row>
     <row r="75" spans="1:83">
       <c r="A75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" t="s">
         <v>171</v>
-      </c>
-      <c r="B75" t="s">
-        <v>172</v>
       </c>
       <c r="C75">
         <v>4531609</v>
@@ -19953,10 +19953,10 @@
     </row>
     <row r="76" spans="1:83">
       <c r="A76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" t="s">
         <v>173</v>
-      </c>
-      <c r="B76" t="s">
-        <v>174</v>
       </c>
       <c r="C76">
         <v>3568623</v>
@@ -20204,10 +20204,10 @@
     </row>
     <row r="77" spans="1:83">
       <c r="A77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" t="s">
         <v>175</v>
-      </c>
-      <c r="B77" t="s">
-        <v>176</v>
       </c>
       <c r="C77">
         <v>3108859</v>
@@ -20455,10 +20455,10 @@
     </row>
     <row r="78" spans="1:83">
       <c r="A78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" t="s">
         <v>177</v>
-      </c>
-      <c r="B78" t="s">
-        <v>178</v>
       </c>
       <c r="C78">
         <v>512965</v>
@@ -20706,10 +20706,10 @@
     </row>
     <row r="79" spans="1:83">
       <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s">
         <v>179</v>
-      </c>
-      <c r="B79" t="s">
-        <v>180</v>
       </c>
       <c r="C79">
         <v>60348388</v>
@@ -20957,10 +20957,10 @@
     </row>
     <row r="80" spans="1:83">
       <c r="A80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" t="s">
         <v>181</v>
-      </c>
-      <c r="B80" t="s">
-        <v>182</v>
       </c>
       <c r="C80">
         <v>229507203</v>
@@ -21208,10 +21208,10 @@
     </row>
     <row r="81" spans="1:83">
       <c r="A81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" t="s">
         <v>183</v>
-      </c>
-      <c r="B81" t="s">
-        <v>184</v>
       </c>
       <c r="C81">
         <v>9743550</v>
@@ -21459,10 +21459,10 @@
     </row>
     <row r="82" spans="1:83">
       <c r="A82" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" t="s">
         <v>185</v>
-      </c>
-      <c r="B82" t="s">
-        <v>186</v>
       </c>
       <c r="C82">
         <v>1292049</v>
@@ -21710,10 +21710,10 @@
     </row>
     <row r="83" spans="1:83">
       <c r="A83" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" t="s">
         <v>187</v>
-      </c>
-      <c r="B83" t="s">
-        <v>188</v>
       </c>
       <c r="C83">
         <v>833973</v>
@@ -21961,10 +21961,10 @@
     </row>
     <row r="84" spans="1:83">
       <c r="A84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" t="s">
         <v>189</v>
-      </c>
-      <c r="B84" t="s">
-        <v>190</v>
       </c>
       <c r="C84">
         <v>1449145</v>
@@ -22212,10 +22212,10 @@
     </row>
     <row r="85" spans="1:83">
       <c r="A85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" t="s">
         <v>191</v>
-      </c>
-      <c r="B85" t="s">
-        <v>192</v>
       </c>
       <c r="C85">
         <v>1290777</v>
@@ -22463,10 +22463,10 @@
     </row>
     <row r="86" spans="1:83">
       <c r="A86" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" t="s">
         <v>193</v>
-      </c>
-      <c r="B86" t="s">
-        <v>194</v>
       </c>
       <c r="C86">
         <v>30427671</v>
@@ -22714,10 +22714,10 @@
     </row>
     <row r="87" spans="1:83">
       <c r="A87" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" t="s">
         <v>195</v>
-      </c>
-      <c r="B87" t="s">
-        <v>196</v>
       </c>
       <c r="C87">
         <v>171823</v>
@@ -22965,10 +22965,10 @@
     </row>
     <row r="88" spans="1:83">
       <c r="A88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" t="s">
         <v>197</v>
-      </c>
-      <c r="B88" t="s">
-        <v>198</v>
       </c>
       <c r="C88">
         <v>45064769</v>
@@ -23216,10 +23216,10 @@
     </row>
     <row r="89" spans="1:83">
       <c r="A89" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" t="s">
         <v>199</v>
-      </c>
-      <c r="B89" t="s">
-        <v>200</v>
       </c>
       <c r="C89">
         <v>30039014</v>
@@ -23467,10 +23467,10 @@
     </row>
     <row r="90" spans="1:83">
       <c r="A90" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" t="s">
         <v>201</v>
-      </c>
-      <c r="B90" t="s">
-        <v>202</v>
       </c>
       <c r="C90">
         <v>32124789</v>
@@ -23718,10 +23718,10 @@
     </row>
     <row r="91" spans="1:83">
       <c r="A91" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" t="s">
         <v>203</v>
-      </c>
-      <c r="B91" t="s">
-        <v>204</v>
       </c>
       <c r="C91">
         <v>30357780</v>
@@ -23969,10 +23969,10 @@
     </row>
     <row r="92" spans="1:83">
       <c r="A92" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" t="s">
         <v>205</v>
-      </c>
-      <c r="B92" t="s">
-        <v>206</v>
       </c>
       <c r="C92">
         <v>28530027</v>
@@ -24220,10 +24220,10 @@
     </row>
     <row r="93" spans="1:83">
       <c r="A93" t="s">
+        <v>206</v>
+      </c>
+      <c r="B93" t="s">
         <v>207</v>
-      </c>
-      <c r="B93" t="s">
-        <v>208</v>
       </c>
       <c r="C93">
         <v>23661561</v>
@@ -24471,10 +24471,10 @@
     </row>
     <row r="94" spans="1:83">
       <c r="A94" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" t="s">
         <v>209</v>
-      </c>
-      <c r="B94" t="s">
-        <v>210</v>
       </c>
       <c r="C94">
         <v>35571569</v>
@@ -24722,10 +24722,10 @@
     </row>
     <row r="95" spans="1:83">
       <c r="A95" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" t="s">
         <v>211</v>
-      </c>
-      <c r="B95" t="s">
-        <v>212</v>
       </c>
       <c r="C95">
         <v>35863200</v>
@@ -24973,10 +24973,10 @@
     </row>
     <row r="96" spans="1:83">
       <c r="A96" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" t="s">
         <v>213</v>
-      </c>
-      <c r="B96" t="s">
-        <v>214</v>
       </c>
       <c r="C96">
         <v>1034903</v>
@@ -25224,10 +25224,10 @@
     </row>
     <row r="97" spans="1:83">
       <c r="A97" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" t="s">
         <v>215</v>
-      </c>
-      <c r="B97" t="s">
-        <v>216</v>
       </c>
       <c r="C97">
         <v>369930</v>
@@ -25475,10 +25475,10 @@
     </row>
     <row r="98" spans="1:83">
       <c r="A98" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" t="s">
         <v>217</v>
-      </c>
-      <c r="B98" t="s">
-        <v>218</v>
       </c>
       <c r="C98">
         <v>3915179</v>
@@ -25726,10 +25726,10 @@
     </row>
     <row r="99" spans="1:83">
       <c r="A99" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" t="s">
         <v>219</v>
-      </c>
-      <c r="B99" t="s">
-        <v>220</v>
       </c>
       <c r="C99">
         <v>556644</v>
@@ -25977,10 +25977,10 @@
     </row>
     <row r="100" spans="1:83">
       <c r="A100" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" t="s">
         <v>221</v>
-      </c>
-      <c r="B100" t="s">
-        <v>222</v>
       </c>
       <c r="C100">
         <v>868660</v>
@@ -26228,10 +26228,10 @@
     </row>
     <row r="101" spans="1:83">
       <c r="A101" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" t="s">
         <v>223</v>
-      </c>
-      <c r="B101" t="s">
-        <v>224</v>
       </c>
       <c r="C101">
         <v>3353625</v>
@@ -26479,10 +26479,10 @@
     </row>
     <row r="102" spans="1:83">
       <c r="A102" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" t="s">
         <v>225</v>
-      </c>
-      <c r="B102" t="s">
-        <v>226</v>
       </c>
       <c r="C102">
         <v>754004</v>
@@ -26730,7 +26730,7 @@
     </row>
     <row r="103" spans="1:83">
       <c r="M103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N103">
         <f t="shared" ref="N103:AS103" si="0">AVERAGE(N3:N102)</f>
@@ -27015,7 +27015,7 @@
     </row>
     <row r="104" spans="1:83">
       <c r="M104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N104">
         <f t="shared" ref="N104:AS104" si="3">STDEVP(N3:N102)</f>
@@ -27300,7 +27300,7 @@
     </row>
     <row r="105" spans="1:83">
       <c r="M105" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N105">
         <f t="shared" ref="N105:AS105" si="6">VARP(N3:N102)</f>
@@ -27585,7 +27585,7 @@
     </row>
     <row r="107" spans="1:83">
       <c r="K107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N107">
         <f>CORREL($H3:$H102,N3:N102)</f>
@@ -27654,60 +27654,60 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="4">
         <v>2511150.254156</v>
@@ -27760,7 +27760,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="4">
         <v>2369675.4738289998</v>
@@ -27813,7 +27813,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="4">
         <v>2168079.0532669998</v>
@@ -27866,7 +27866,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="4">
         <v>2236338.4298840002</v>
@@ -27919,7 +27919,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="4">
         <v>1939535.2342600001</v>
@@ -27972,7 +27972,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="4">
         <v>2310196.1411899999</v>
@@ -28025,7 +28025,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" s="4">
         <v>2059951.968808</v>
@@ -28078,7 +28078,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" s="4">
         <v>2209161.3441829998</v>
@@ -28131,7 +28131,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" s="4">
         <v>2175003.2753329999</v>
@@ -28184,7 +28184,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="4">
         <v>2329756.1940649999</v>
@@ -28237,7 +28237,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="4">
         <v>1846980.1038250001</v>
@@ -28290,7 +28290,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B13" s="4">
         <v>1871840.9317900001</v>
@@ -28343,7 +28343,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B14" s="4">
         <v>2108881.052648</v>
@@ -28396,7 +28396,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="4">
         <v>2240899.0924109998</v>
@@ -28449,7 +28449,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" s="4">
         <v>2311715.6174829998</v>
@@ -28502,7 +28502,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B17" s="4">
         <v>1745063.5127580001</v>
@@ -28555,7 +28555,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B18" s="4">
         <v>1961286.579923</v>
@@ -28608,7 +28608,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B19" s="4">
         <v>2728427.1372019998</v>
@@ -28661,7 +28661,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B20" s="4">
         <v>2278150.4893530002</v>
@@ -28714,7 +28714,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" s="4">
         <v>2130734.5579369999</v>
@@ -28767,7 +28767,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B22" s="4">
         <v>11326860.169438001</v>
@@ -28820,7 +28820,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" s="4">
         <v>9173190.5620370004</v>
@@ -28873,7 +28873,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B24" s="4">
         <v>8984513.9674600009</v>
@@ -28926,7 +28926,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B25" s="4">
         <v>9381792.0981249996</v>
@@ -28979,7 +28979,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" s="4">
         <v>8436652.9378859997</v>
@@ -29032,7 +29032,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B27" s="4">
         <v>6720091.6631530002</v>
@@ -29085,7 +29085,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B28" s="4">
         <v>7033337.2597709997</v>
@@ -29138,7 +29138,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B29" s="4">
         <v>6930842.5537780002</v>
@@ -29191,7 +29191,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" s="4">
         <v>6325691.5450980002</v>
@@ -29244,7 +29244,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B31" s="4">
         <v>6020057.7710910002</v>
@@ -29297,7 +29297,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" s="4">
         <v>9958820.1165650003</v>
@@ -29350,7 +29350,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="4">
         <v>10592578.83932</v>
@@ -29403,7 +29403,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="4">
         <v>8738748.0140450001</v>
@@ -29456,7 +29456,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" s="4">
         <v>8413174.2365719993</v>
@@ -29509,7 +29509,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B36" s="4">
         <v>7992956.5324670002</v>
@@ -29562,7 +29562,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B37" s="4">
         <v>7569160.2442929996</v>
@@ -29615,7 +29615,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B38" s="4">
         <v>7007671.3960819999</v>
@@ -29668,7 +29668,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B39" s="4">
         <v>6531137.5738070002</v>
@@ -29721,7 +29721,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B40" s="4">
         <v>5463953.1646640003</v>
@@ -29774,7 +29774,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B41" s="4">
         <v>6007763.3303680001</v>
@@ -29827,7 +29827,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B42" s="4">
         <v>6016202.5109350001</v>
@@ -29880,7 +29880,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" s="4">
         <v>5954991.2684359998</v>
@@ -29933,7 +29933,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B44" s="4">
         <v>4494499.1479110001</v>
@@ -29986,7 +29986,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B45" s="4">
         <v>4138538.3495760001</v>
@@ -30039,7 +30039,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B46" s="4">
         <v>3823470.5203030002</v>
@@ -30092,7 +30092,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B47" s="4">
         <v>3675121.8657800001</v>
@@ -30145,7 +30145,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B48" s="4">
         <v>3605766.7716560001</v>
@@ -30198,7 +30198,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B49" s="4">
         <v>3570491.316168</v>
@@ -30251,7 +30251,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B50" s="4">
         <v>2555835.3465510001</v>
@@ -30304,7 +30304,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" s="4">
         <v>2870092.7924629999</v>
@@ -30357,7 +30357,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B52" s="4">
         <v>1754283.254677</v>
@@ -30410,7 +30410,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B53" s="4">
         <v>1702407.6865930001</v>
@@ -30463,7 +30463,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B54" s="4">
         <v>6734501.144297</v>
@@ -30516,7 +30516,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B55" s="4">
         <v>1235374.4345819999</v>

--- a/MCBIOS2015-BMCBioinformatics/Supplement.xlsx
+++ b/MCBIOS2015-BMCBioinformatics/Supplement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DATASET 1" sheetId="1" r:id="rId1"/>
@@ -715,21 +715,6 @@
     <t>LZ78</t>
   </si>
   <si>
-    <t>bwasw</t>
-  </si>
-  <si>
-    <t>bowtie2</t>
-  </si>
-  <si>
-    <t>cushaw2</t>
-  </si>
-  <si>
-    <t>seqalto</t>
-  </si>
-  <si>
-    <t>smalt</t>
-  </si>
-  <si>
     <t>CM000834.1</t>
   </si>
   <si>
@@ -905,6 +890,21 @@
   </si>
   <si>
     <t>Read length 75, sequencing error rate 2%, mutation 0.1%</t>
+  </si>
+  <si>
+    <t>bwasw coverage</t>
+  </si>
+  <si>
+    <t>bowtie2 coverage</t>
+  </si>
+  <si>
+    <t>cushaw2 coverage</t>
+  </si>
+  <si>
+    <t>seqalto coverage</t>
+  </si>
+  <si>
+    <t>smalt coverage</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+    <sheetView topLeftCell="BC1" workbookViewId="0">
       <selection activeCell="BV2" sqref="BV2"/>
     </sheetView>
   </sheetViews>
@@ -1365,16 +1365,16 @@
         <v>2</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="BV1" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:83">
@@ -27585,7 +27585,7 @@
     </row>
     <row r="107" spans="1:83">
       <c r="K107" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N107">
         <f>CORREL($H3:$H102,N3:N102)</f>
@@ -27643,8 +27643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27690,24 +27690,24 @@
         <v>15</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B2" s="4">
         <v>2511150.254156</v>
@@ -27760,7 +27760,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B3" s="4">
         <v>2369675.4738289998</v>
@@ -27813,7 +27813,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B4" s="4">
         <v>2168079.0532669998</v>
@@ -27866,7 +27866,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B5" s="4">
         <v>2236338.4298840002</v>
@@ -27919,7 +27919,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B6" s="4">
         <v>1939535.2342600001</v>
@@ -27972,7 +27972,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B7" s="4">
         <v>2310196.1411899999</v>
@@ -28025,7 +28025,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B8" s="4">
         <v>2059951.968808</v>
@@ -28078,7 +28078,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B9" s="4">
         <v>2209161.3441829998</v>
@@ -28131,7 +28131,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B10" s="4">
         <v>2175003.2753329999</v>
@@ -28184,7 +28184,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B11" s="4">
         <v>2329756.1940649999</v>
@@ -28237,7 +28237,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B12" s="4">
         <v>1846980.1038250001</v>
@@ -28290,7 +28290,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B13" s="4">
         <v>1871840.9317900001</v>
@@ -28343,7 +28343,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B14" s="4">
         <v>2108881.052648</v>
@@ -28396,7 +28396,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B15" s="4">
         <v>2240899.0924109998</v>
@@ -28449,7 +28449,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B16" s="4">
         <v>2311715.6174829998</v>
@@ -28502,7 +28502,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B17" s="4">
         <v>1745063.5127580001</v>
@@ -28555,7 +28555,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B18" s="4">
         <v>1961286.579923</v>
@@ -28608,7 +28608,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B19" s="4">
         <v>2728427.1372019998</v>
@@ -28661,7 +28661,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B20" s="4">
         <v>2278150.4893530002</v>
@@ -28714,7 +28714,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B21" s="4">
         <v>2130734.5579369999</v>
@@ -28767,7 +28767,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B22" s="4">
         <v>11326860.169438001</v>
@@ -28820,7 +28820,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B23" s="4">
         <v>9173190.5620370004</v>
@@ -28873,7 +28873,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B24" s="4">
         <v>8984513.9674600009</v>
@@ -28926,7 +28926,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B25" s="4">
         <v>9381792.0981249996</v>
@@ -28979,7 +28979,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B26" s="4">
         <v>8436652.9378859997</v>
@@ -29032,7 +29032,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B27" s="4">
         <v>6720091.6631530002</v>
@@ -29085,7 +29085,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B28" s="4">
         <v>7033337.2597709997</v>
@@ -29138,7 +29138,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B29" s="4">
         <v>6930842.5537780002</v>
@@ -29191,7 +29191,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B30" s="4">
         <v>6325691.5450980002</v>
@@ -29244,7 +29244,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B31" s="4">
         <v>6020057.7710910002</v>
@@ -29297,7 +29297,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B32" s="4">
         <v>9958820.1165650003</v>
@@ -29350,7 +29350,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B33" s="4">
         <v>10592578.83932</v>
@@ -29403,7 +29403,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B34" s="4">
         <v>8738748.0140450001</v>
@@ -29456,7 +29456,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B35" s="4">
         <v>8413174.2365719993</v>
@@ -29509,7 +29509,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B36" s="4">
         <v>7992956.5324670002</v>
@@ -29562,7 +29562,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B37" s="4">
         <v>7569160.2442929996</v>
@@ -29615,7 +29615,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B38" s="4">
         <v>7007671.3960819999</v>
@@ -29668,7 +29668,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B39" s="4">
         <v>6531137.5738070002</v>
@@ -29721,7 +29721,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B40" s="4">
         <v>5463953.1646640003</v>
@@ -29774,7 +29774,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B41" s="4">
         <v>6007763.3303680001</v>
@@ -29827,7 +29827,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B42" s="4">
         <v>6016202.5109350001</v>
@@ -29880,7 +29880,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B43" s="4">
         <v>5954991.2684359998</v>
@@ -29933,7 +29933,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B44" s="4">
         <v>4494499.1479110001</v>
@@ -29986,7 +29986,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B45" s="4">
         <v>4138538.3495760001</v>
@@ -30039,7 +30039,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B46" s="4">
         <v>3823470.5203030002</v>
@@ -30092,7 +30092,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B47" s="4">
         <v>3675121.8657800001</v>
@@ -30145,7 +30145,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B48" s="4">
         <v>3605766.7716560001</v>
@@ -30198,7 +30198,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B49" s="4">
         <v>3570491.316168</v>
@@ -30251,7 +30251,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B50" s="4">
         <v>2555835.3465510001</v>
@@ -30304,7 +30304,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B51" s="4">
         <v>2870092.7924629999</v>
@@ -30357,7 +30357,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B52" s="4">
         <v>1754283.254677</v>
@@ -30410,7 +30410,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B53" s="4">
         <v>1702407.6865930001</v>
@@ -30463,7 +30463,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B54" s="4">
         <v>6734501.144297</v>
@@ -30516,7 +30516,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B55" s="4">
         <v>1235374.4345819999</v>
